--- a/NEUS depth.xlsx
+++ b/NEUS depth.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +511,7 @@
   <dimension ref="A2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D4" sqref="D4:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
